--- a/data/trans_orig/P1433-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1433-Clase-trans_orig.xlsx
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7211</v>
+        <v>7132</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006427898913846121</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02293029570913633</v>
+        <v>0.02267998507920855</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6965</v>
+        <v>8175</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00268907035542029</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009265939533094417</v>
+        <v>0.01087634440215639</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>312433</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>307243</v>
+        <v>307322</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>314454</v>
@@ -827,7 +827,7 @@
         <v>0.9935721010861539</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9770697042908637</v>
+        <v>0.9773200149207918</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>749644</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>744700</v>
+        <v>743490</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>751665</v>
@@ -848,7 +848,7 @@
         <v>0.9973109296445797</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9907340604669059</v>
+        <v>0.9891236555978454</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5198</v>
+        <v>4842</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002134305175755714</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01241091235965941</v>
+        <v>0.01156201923741694</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5535</v>
+        <v>4494</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002889761228368356</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01637660739969741</v>
+        <v>0.01329636313511437</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5834</v>
+        <v>7061</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002471712432610041</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007708161276923474</v>
+        <v>0.009329619812982175</v>
       </c>
     </row>
     <row r="8">
@@ -1014,7 +1014,7 @@
         <v>417903</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>413599</v>
+        <v>413955</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>418797</v>
@@ -1023,7 +1023,7 @@
         <v>0.9978656948242443</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9875890876403406</v>
+        <v>0.9884379807625829</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1035,7 +1035,7 @@
         <v>337034</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>332476</v>
+        <v>333517</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>338011</v>
@@ -1044,7 +1044,7 @@
         <v>0.9971102387716316</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9836233926003024</v>
+        <v>0.9867036368648857</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1056,7 +1056,7 @@
         <v>754937</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>750974</v>
+        <v>749747</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>756808</v>
@@ -1065,7 +1065,7 @@
         <v>0.99752828756739</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9922918387230766</v>
+        <v>0.9906703801870191</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6940</v>
+        <v>6389</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002929524424161676</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01102545634122294</v>
+        <v>0.01015074316721641</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4752</v>
+        <v>5545</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003686314662287076</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01826668125722884</v>
+        <v>0.02131569785433454</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1205,16 +1205,16 @@
         <v>893</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7508</v>
+        <v>7482</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003150832597795195</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001004293860867068</v>
+        <v>0.001004065149208803</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008439948165082565</v>
+        <v>0.008411592613154009</v>
       </c>
     </row>
     <row r="11">
@@ -1231,7 +1231,7 @@
         <v>627571</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>622475</v>
+        <v>623026</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>629415</v>
@@ -1240,7 +1240,7 @@
         <v>0.9970704755758383</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9889745436587783</v>
+        <v>0.9898492568327837</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>259170</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>255377</v>
+        <v>254584</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>260129</v>
@@ -1261,7 +1261,7 @@
         <v>0.9963136853377129</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9817333187427711</v>
+        <v>0.9786843021456649</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>886741</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>882036</v>
+        <v>882062</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>888651</v>
@@ -1282,10 +1282,10 @@
         <v>0.9968491674022047</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9915600518349176</v>
+        <v>0.9915884073868463</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9989957061391329</v>
+        <v>0.9989959348507912</v>
       </c>
     </row>
     <row r="12">
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5235</v>
+        <v>5869</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00136542445104673</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.006845584670808372</v>
+        <v>0.007674241259935351</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5925</v>
+        <v>5235</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0005427838615440793</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.00307998536476188</v>
+        <v>0.002721292764167638</v>
       </c>
     </row>
     <row r="14">
@@ -1453,7 +1453,7 @@
         <v>763678</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>759487</v>
+        <v>758853</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>764722</v>
@@ -1462,7 +1462,7 @@
         <v>0.9986345755489533</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9931544153291917</v>
+        <v>0.9923257587400647</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1474,7 +1474,7 @@
         <v>1922687</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1917806</v>
+        <v>1918496</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>1923731</v>
@@ -1483,7 +1483,7 @@
         <v>0.999457216138456</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9969200146352379</v>
+        <v>0.9972787072358323</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6400</v>
+        <v>7146</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003977353757683974</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01253440961749375</v>
+        <v>0.01399519182373577</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1599,19 +1599,19 @@
         <v>3127</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9208</v>
+        <v>8942</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004113012951843017</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001176419977669201</v>
+        <v>0.001191660079128148</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01211199682752121</v>
+        <v>0.01176141134830915</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1620,19 +1620,19 @@
         <v>5158</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1871</v>
+        <v>1844</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11975</v>
+        <v>10689</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00405850810527795</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001472284172395309</v>
+        <v>0.001451090585136176</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009423231186766931</v>
+        <v>0.008410917571415924</v>
       </c>
     </row>
     <row r="17">
@@ -1649,7 +1649,7 @@
         <v>508565</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>504196</v>
+        <v>503450</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>510596</v>
@@ -1658,7 +1658,7 @@
         <v>0.9960226462423161</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9874655903825063</v>
+        <v>0.9860048081762632</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1670,19 +1670,19 @@
         <v>757119</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>751038</v>
+        <v>751304</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>759352</v>
+        <v>759340</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.995886987048157</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9878880031724789</v>
+        <v>0.9882385886516911</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9988235800223308</v>
+        <v>0.9988083399208718</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1184</v>
@@ -1691,19 +1691,19 @@
         <v>1265685</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1258868</v>
+        <v>1260154</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1268972</v>
+        <v>1268999</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.995941491894722</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9905767688132325</v>
+        <v>0.991589082428584</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9985277158276047</v>
+        <v>0.9985489094148639</v>
       </c>
     </row>
     <row r="18">
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7637</v>
+        <v>6566</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.001967052469048777</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.00689675059551446</v>
+        <v>0.005930204905495868</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6554</v>
+        <v>7295</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001585022524033452</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.004769448862719592</v>
+        <v>0.005309057240636587</v>
       </c>
     </row>
     <row r="20">
@@ -1871,7 +1871,7 @@
         <v>1105102</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1099643</v>
+        <v>1100714</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>1107280</v>
@@ -1880,7 +1880,7 @@
         <v>0.9980329475309512</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9931032494044856</v>
+        <v>0.9940697950945041</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>1371983</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1367607</v>
+        <v>1366866</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>1374161</v>
@@ -1901,7 +1901,7 @@
         <v>0.9984149774759665</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9952305511372804</v>
+        <v>0.9946909427593617</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -1996,19 +1996,19 @@
         <v>4769</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1804</v>
+        <v>1848</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10361</v>
+        <v>11435</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001393534232136555</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0005271762602738374</v>
+        <v>0.0005401602321162787</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.003027812669648849</v>
+        <v>0.003341680839963715</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2017,19 +2017,19 @@
         <v>10306</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5388</v>
+        <v>5182</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18661</v>
+        <v>18511</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002907356068730163</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001519872728762871</v>
+        <v>0.001461771754295593</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.005264272389494207</v>
+        <v>0.005221839376790137</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -2038,19 +2038,19 @@
         <v>15075</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9038</v>
+        <v>8842</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23905</v>
+        <v>25148</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002163801320004893</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001297351350058499</v>
+        <v>0.001269131785076907</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.003431296881496458</v>
+        <v>0.003609768551340283</v>
       </c>
     </row>
     <row r="23">
@@ -2067,19 +2067,19 @@
         <v>3417141</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3411549</v>
+        <v>3410475</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3420106</v>
+        <v>3420062</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9986064657678635</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9969721873303508</v>
+        <v>0.9966583191600372</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9994728237397261</v>
+        <v>0.9994598397678838</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3276</v>
@@ -2088,19 +2088,19 @@
         <v>3534537</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3526182</v>
+        <v>3526332</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3539455</v>
+        <v>3539661</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9970926439312698</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9947357276105055</v>
+        <v>0.9947781606232098</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.998480127271237</v>
+        <v>0.9985382282457044</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6476</v>
@@ -2109,19 +2109,19 @@
         <v>6951678</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6942848</v>
+        <v>6941605</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6957715</v>
+        <v>6957911</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9978361986799951</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9965687031185035</v>
+        <v>0.9963902314486597</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9987026486499415</v>
+        <v>0.9987308682149231</v>
       </c>
     </row>
     <row r="24">
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6505</v>
+        <v>6859</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005258760891773421</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01724468692052532</v>
+        <v>0.01818229372638311</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6267</v>
+        <v>6956</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002646759001153133</v>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008361960388230869</v>
+        <v>0.009281319064241126</v>
       </c>
     </row>
     <row r="8">
@@ -2687,7 +2687,7 @@
         <v>375243</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>370722</v>
+        <v>370368</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>377227</v>
@@ -2696,7 +2696,7 @@
         <v>0.9947412391082265</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9827553130794745</v>
+        <v>0.9818177062736174</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2721,7 +2721,7 @@
         <v>747516</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>743233</v>
+        <v>742544</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>749500</v>
@@ -2730,7 +2730,7 @@
         <v>0.9973532409988468</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9916380396117691</v>
+        <v>0.9907186809357589</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4483</v>
+        <v>5160</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0007744048257393855</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.003899181955028354</v>
+        <v>0.004488693813012891</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4140</v>
+        <v>5130</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001234824880944891</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.005012608087710404</v>
+        <v>0.006211923841291025</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6610</v>
+        <v>6938</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.000966886258004553</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.003345727251608646</v>
+        <v>0.003511788781907968</v>
       </c>
     </row>
     <row r="14">
@@ -3065,7 +3065,7 @@
         <v>1148748</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1145155</v>
+        <v>1144478</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>1149638</v>
@@ -3074,7 +3074,7 @@
         <v>0.9992255951742606</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9961008180449717</v>
+        <v>0.9955113061869871</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3086,7 +3086,7 @@
         <v>824856</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>821736</v>
+        <v>820746</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>825876</v>
@@ -3095,7 +3095,7 @@
         <v>0.9987651751190552</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9949873919122896</v>
+        <v>0.993788076158709</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3107,7 +3107,7 @@
         <v>1973604</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1968904</v>
+        <v>1968576</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>1975514</v>
@@ -3116,7 +3116,7 @@
         <v>0.9990331137419954</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9966542727483911</v>
+        <v>0.9964882112180919</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4762</v>
+        <v>5099</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0009427317769665098</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.00440119440262376</v>
+        <v>0.004712877981084049</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5134</v>
+        <v>5117</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0007450201303713065</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0037493695412225</v>
+        <v>0.0037376365898855</v>
       </c>
     </row>
     <row r="20">
@@ -3456,7 +3456,7 @@
         <v>1081005</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1077263</v>
+        <v>1076926</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>1082025</v>
@@ -3465,7 +3465,7 @@
         <v>0.9990572682230335</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9955988055973757</v>
+        <v>0.995287122018916</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -3477,7 +3477,7 @@
         <v>1368150</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1364036</v>
+        <v>1364053</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>1369170</v>
@@ -3486,7 +3486,7 @@
         <v>0.9992549798696287</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9962506304587775</v>
+        <v>0.9962623634101145</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -3581,19 +3581,19 @@
         <v>2874</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8109</v>
+        <v>8055</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0008488683041606193</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0002623166896672934</v>
+        <v>0.0002619714579235323</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.002394994129544309</v>
+        <v>0.00237915544349828</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6919</v>
+        <v>6923</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0005776060634890225</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.001959286847954914</v>
+        <v>0.001960260035943918</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -3623,19 +3623,19 @@
         <v>4914</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1925</v>
+        <v>1911</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10894</v>
+        <v>10907</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0007103769693462794</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0002783010025696904</v>
+        <v>0.0002762918743808106</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.001574825320115567</v>
+        <v>0.001576700753954114</v>
       </c>
     </row>
     <row r="23">
@@ -3652,19 +3652,19 @@
         <v>3382848</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3377613</v>
+        <v>3377667</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3384834</v>
+        <v>3384835</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9991511316958394</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9976050058704552</v>
+        <v>0.9976208445565015</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9997376833103327</v>
+        <v>0.9997380285420765</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3324</v>
@@ -3673,7 +3673,7 @@
         <v>3529556</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3524677</v>
+        <v>3524673</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>3531596</v>
@@ -3682,7 +3682,7 @@
         <v>0.999422393936511</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9980407131520435</v>
+        <v>0.9980397399640566</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -3694,19 +3694,19 @@
         <v>6912404</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6906424</v>
+        <v>6906411</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6915393</v>
+        <v>6915407</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9992896230306537</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9984251746798845</v>
+        <v>0.9984232992460459</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9997216989974302</v>
+        <v>0.9997237081256192</v>
       </c>
     </row>
     <row r="24">
